--- a/PGY1_Allocations_export.xlsx
+++ b/PGY1_Allocations_export.xlsx
@@ -469,22 +469,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>JHH Obstetrics &amp; Gynaecology (PGY1/2)</t>
+          <t>BDH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>BDH Emergency (PGY1/2)</t>
+          <t>CMN Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>JHH Medicine - Nephrology &amp; Dialysis (PGY1/2)</t>
+          <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>JHH General Surgery / Hepatopancreatobiliary and Upper GI Surgery (PGY1/2)</t>
+          <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>100.00</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11.80</t>
+          <t>3.00</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>21.50</t>
+          <t>5.00</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.00</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>1.58</t>
         </is>
       </c>
     </row>
@@ -737,11 +737,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>JHH Obstetrics &amp; Gynaecology (PGY1/2)</t>
+          <t>BDH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C8">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -752,11 +752,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BDH Emergency (PGY1/2)</t>
+          <t>CMN Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -767,11 +767,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>JHH Medicine - Nephrology &amp; Dialysis (PGY1/2)</t>
+          <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -782,11 +782,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>JHH General Surgery / Hepatopancreatobiliary and Upper GI Surgery (PGY1/2)</t>
+          <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -842,7 +842,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20.6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
@@ -1710,12 +1710,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>BDH Sub-Acute General Medicine (Team 5) (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>BDH Emergency (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>BDH Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1737,12 +1737,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BDH Sub-Acute General Medicine (Team 5) (PGY1/2)</t>
+          <t>BDH Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CMN Emergency (PGY1/2)</t>
+          <t>BDH Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BDH Surgery (PGY1/2)</t>
+          <t>CMN Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CMN Emergency (PGY1/2)</t>
+          <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CMN General Medicine (PGY1/2)</t>
+          <t>CMN Medicine - Gastroenterology with Drug &amp; Alcohol (PGY1/2)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CMN Medicine - Gastroenterology with Drug &amp; Alcohol (PGY1/2)</t>
+          <t>CMN Medicine - Haematology (01) (PGY1/2)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CMN Medicine - Haematology (01) (PGY1/2)</t>
+          <t>CMN Medicine - Medical Oncology (01) (PGY1/2)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CMN Medicine - Medical Oncology (01) (PGY1/2)</t>
+          <t>CMN Palliative Care (PGY1/2)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CMN Palliative Care (PGY1/2)</t>
+          <t>CMN Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CMN Surgery (PGY1/2)</t>
+          <t>HNE Mental Health &amp; Substance Use Service - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HNE Mental Health &amp; Substance Use Service - Mater Hospital (PGY1/2)</t>
+          <t>HNE Mental Health Lake Macquarie Ward - Mater hospital (PGY1/2)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HNE Mental Health Lake Macquarie Ward - Mater hospital (PGY1/2)</t>
+          <t>HNE Mental Health Newcastle Inpatient Unit - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HNE Mental Health Newcastle Inpatient Unit - Mater Hospital (PGY1/2)</t>
+          <t>HNE Mental Health Older People's Service - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HNE Mental Health Older People's Service - Mater Hospital (PGY1/2)</t>
+          <t>JHH Acute General Surgery Unit (PGY1/2)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>JHH Acute General Surgery Unit (PGY1/2)</t>
+          <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>JHH Emergency (PGY1/2)</t>
+          <t>JHH General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>JHH Emergency (PGY1/2)</t>
+          <t>JHH General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2584,12 +2584,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>JHH General Medicine (PGY1/2)</t>
+          <t>JHH General Surgery / Colorectal (PGY1/2)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>JHH General Surgery / Trauma (PGY1/2)</t>
+          <t>JHH General Surgery / Hepatopancreatobiliary and Upper GI Surgery (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>JHH General Medicine (PGY1/2)</t>
+          <t>JHH General Surgery / Colorectal (PGY1/2)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2611,12 +2611,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>JHH General Surgery / Colorectal (PGY1/2)</t>
+          <t>JHH General Surgery / Trauma (PGY1/2)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>JHH Medicine - Cardiology (PGY1/2)</t>
+          <t>JHH General Surgery / Trauma (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>JHH General Surgery / Colorectal (PGY1/2)</t>
+          <t>JHH General Surgery / Trauma (PGY1/2)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>JHH General Surgery / Trauma (PGY1/2)</t>
+          <t>JHH Medicine - Cardiology (PGY1/2)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>JHH General Surgery / Trauma (PGY1/2)</t>
+          <t>JHH General Surgery / Upper GI (PGY1/2)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2665,12 +2665,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>JHH Medicine - Dermatology (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>JHH Medicine - Cardiology (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>JHH Medicine - Gastroenterology (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>JHH General Surgery / Upper GI (PGY1/2)</t>
+          <t>JHH Medicine - Cardiology (PGY1/2)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>JHH Medicine - Dermatology (PGY1/2)</t>
+          <t>JHH Medicine - Gastroenterology (PGY1/2)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>JHH Medicine - Cardiology (PGY1/2)</t>
+          <t>JHH Medicine - Dermatology (PGY1/2)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2719,12 +2719,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>JHH Medicine - MACU (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>JHH Medicine - Gastroenterology (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>JHH Medicine - Infectious Disease (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>JHH Medicine - Dermatology (PGY1/2)</t>
+          <t>JHH Medicine - Gastroenterology (PGY1/2)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2746,12 +2746,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>JHH Medicine - MACU (PGY1/2)</t>
+          <t>JHH Medicine - Nephrology &amp; Dialysis (PGY1/2)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>JHH Medicine - Neurology (PGY1/2)</t>
+          <t>JHH Medicine - Infectious Disease (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>JHH Medicine - Gastroenterology (PGY1/2)</t>
+          <t>JHH Medicine - MACU (PGY1/2)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
+          <t>JHH Medicine - Neurology (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>JHH Medicine - MACU (PGY1/2)</t>
+          <t>JHH Medicine - Nephrology &amp; Dialysis (PGY1/2)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>JHH Medicine - Nephrology &amp; Dialysis (PGY1/2)</t>
+          <t>JHH Medicine - Neurology (PGY1/2)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>JHH Medicine - Respiratory (PGY1/2)</t>
+          <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>JHH Medicine - Neurology (PGY1/2)</t>
+          <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>JHH Obstetrics &amp; Gynaecology (PGY1/2)</t>
+          <t>JHH Medicine - Respiratory (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>JHH Surgery - Cardiothoracic Surgery (PGY1/2)</t>
+          <t>JHH Obstetrics &amp; Gynaecology (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
+          <t>JHH Medicine - Respiratory (PGY1/2)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>JHH Surgery - Neurosurgery (PGY1/2)</t>
+          <t>JHH Surgery - Cardiothoracic Surgery (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>JHH Medicine - Respiratory (PGY1/2)</t>
+          <t>JHH Obstetrics &amp; Gynaecology (PGY1/2)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
+          <t>JHH Surgery - Neurosurgery (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>JHH Surgery - Orthopaedics (Team 6) (PGY1/2)</t>
+          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>JHH Surgery - Urology (PGY1/2)</t>
+          <t>JHH Surgery - Orthopaedics (Team 6) (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>JHH Surgery - Vascular (PGY1/2)</t>
+          <t>JHH Surgery - Urology (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MH  Medicine - Cardiology (PGY1/2)</t>
+          <t>JHH Surgery - Vascular (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MH Emergency (PGY1/2)</t>
+          <t>MH  Medicine - Cardiology (PGY1/2)</t>
         </is>
       </c>
     </row>

--- a/PGY1_Allocations_export.xlsx
+++ b/PGY1_Allocations_export.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>CMN Medicine - Cardiology (PGY1/2)</t>
+          <t>JHH Surgery - Vascular (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CMN Medicine - Medical Oncology (01) (PGY1/2)</t>
+          <t>BDH Surgery (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>CMN Relief (PGY1/2)</t>
+          <t>BDH Acute General Medicine &amp; Cardiology (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -731,12 +731,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>BDH Acute General Medicine &amp; Rehabilitation (PGY1/2)</t>
+          <t>MH KK Rehabilitation (PGY 1/2)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>MH  Medicine - Cardiology (PGY1/2)</t>
+          <t>JHH Surgery - Neurosurgery (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>JHH Surgery - Neurosurgery (PGY1/2)</t>
+          <t>CMN Medicine - Haematology (01) (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>JHH Surgery - Neurosurgery (PGY1/2)</t>
+          <t>JHH Medicine - Respiratory (PGY1/2)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>CMN General Medicine (PGY1/2)</t>
+          <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -936,17 +936,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>JHH General Medicine (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>CMN Medicine - Medical Oncology (01) (PGY1/2)</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>JHH General Medicine (PGY1/2)</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
+          <t>MH General Surgery (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -988,7 +988,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>JHH Emergency (PGY1/2)</t>
+          <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -1020,17 +1020,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>MH Emergency (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>JHH Acute General Surgery Unit (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>JHH Acute General Surgery Unit (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>BDH Surgery (PGY1/2)</t>
+          <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>JHH Surgery - Urology (PGY1/2)</t>
+          <t>JHH Acute General Surgery Unit (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -1146,17 +1146,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MH General Surgery (PGY1/2)</t>
+          <t>MBH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>MBH Emergency (PGY1/2)</t>
+          <t>HNE Mental Health Newcastle Inpatient Unit - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>HNE Mental Health Newcastle Inpatient Unit - Mater Hospital (PGY1/2)</t>
+          <t>HNE Mental Health Lake Macquarie Ward - Mater hospital (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -1277,12 +1277,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>BDH Sub-Acute General Medicine (Team 5) (PGY1/2)</t>
+          <t>CMN Palliative Care (PGY1/2)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>JHH General Medicine (PGY1/2)</t>
+          <t>JHH Surgery - Urology (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>JHH Medicine Relief (PGY1/2)</t>
+          <t>MH General Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>HNE Mental Health Lake Macquarie Ward - Mater hospital (PGY1/2)</t>
+          <t>JHH Medicine - Gastroenterology (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -1445,12 +1445,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>JHH Medicine Relief (PGY1/2)</t>
+          <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>HNE Relief (PGY1/2)</t>
+          <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>MH Emergency (PGY1/2)</t>
+          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>BDH Acute General Medicine (PGY1/2)</t>
+          <t>CMN Medicine - Cardiology (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>CMN Palliative Care (PGY1/2)</t>
+          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1650,12 +1650,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>CMN Emergency (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>JHH Medicine Relief (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>MH KK Rehabilitation (PGY 1/2)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>JHH Surgery - Vascular (PGY1/2)</t>
+          <t>MH  Medicine - Cardiology (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>JHH Medicine - Respiratory (PGY1/2)</t>
+          <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -1823,12 +1823,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>CMN Emergency (PGY1/2)</t>
+          <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>HNE Relief (PGY1/2)</t>
+          <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2028,17 +2028,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>CMN Medicine - Haematology (01) (PGY1/2)</t>
+          <t>BDH Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>BDH Acute General Medicine (PGY1/2)</t>
+          <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>MH General Medicine (PGY1/2)</t>
+          <t>CMN Surgery (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2122,7 +2122,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>CMN Surgery (PGY1/2)</t>
+          <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2159,12 +2159,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>MH General Medicine (PGY1/2)</t>
+          <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>JHH Emergency (PGY1/2)</t>
+          <t>JHH General Surgery / Hepatopancreatobiliary and Upper GI Surgery (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2233,14 +2233,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
+          <t>MH General Medicine (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
           <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>MH General Medicine (PGY1/2)</t>
-        </is>
-      </c>
       <c r="G45" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>JHH Medicine - Cardiology (PGY1/2)</t>
+          <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2280,17 +2280,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>JHH Obstetrics &amp; Gynaecology (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>CMN Medicine - Gastroenterology with Drug &amp; Alcohol (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
           <t>MH Emergency (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>CMN Medicine - Gastroenterology with Drug &amp; Alcohol (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>CMN Emergency (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
+          <t>BDH Acute General Medicine (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2364,17 +2364,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>CMN Relief (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>BDH Acute General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>BDH Surgery (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>BDH After Hours Internal Relief (PGY1/2)</t>
+          <t>JHH General Surgery / Upper GI (PGY1/2)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2495,12 +2495,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
+          <t>MBH Emergency (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
           <t>CMN Relief (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>BDH Acute General Medicine &amp; Cardiology (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2579,12 +2579,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>MH General Surgery (PGY1/2)</t>
+          <t>TRRH Surgery C (PGY1/2)</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>JHH Acute General Surgery Unit (PGY1/2)</t>
+          <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2616,12 +2616,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>CMN Medicine - Medical Oncology (01) (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>JHH Obstetrics &amp; Gynaecology (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>CMN Medicine - Medical Oncology (01) (PGY1/2)</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>MBH Emergency (PGY1/2)</t>
+          <t>BDH Acute General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>JHH Emergency (PGY1/2)</t>
+          <t>BDH After Hours Internal Relief (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>HNE Mental Health Older People's Service - Mater Hospital (PGY1/2)</t>
+          <t>JHH Medicine - Cardiology (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>CMN General Medicine (PGY1/2)</t>
+          <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>TRRH Surgery C (PGY1/2)</t>
+          <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2873,12 +2873,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
+          <t>JHH Surgery Relief (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
           <t>JHH Obstetrics &amp; Gynaecology (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>JHH Surgery Relief (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2915,12 +2915,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>BDH Surgery (PGY1/2)</t>
+          <t>BDH Sub-Acute General Medicine (Team 5) (PGY1/2)</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>JHH Emergency (PGY1/2)</t>
+          <t>CMN Medicine - Medical Oncology (01) (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
+          <t>CMN Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3120,17 +3120,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>CMN Medicine - Haematology (01) (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>JHH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>CMN Medicine - Haematology (01) (PGY1/2)</t>
-        </is>
-      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>JHH Obstetrics &amp; Gynaecology (PGY1/2)</t>
+          <t>HNE Mental Health Older People's Service - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -3204,17 +3204,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>CMN General Medicine (PGY1/2)</t>
+          <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>JHH Medicine - Respiratory (PGY1/2)</t>
+          <t>BDH Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>JHH Medicine - Gastroenterology (PGY1/2)</t>
+          <t>JHH Acute General Surgery Unit (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -3335,12 +3335,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>JHH General Surgery / Upper GI (PGY1/2)</t>
+          <t>BDH Acute General Medicine &amp; Rehabilitation (PGY1/2)</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>JHH General Surgery / Hepatopancreatobiliary and Upper GI Surgery (PGY1/2)</t>
+          <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -3377,12 +3377,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
+          <t>CMN Medicine - Haematology (01) (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
           <t>HNE Mental Health Newcastle Inpatient Unit - Mater Hospital (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>CMN Medicine - Haematology (01) (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -3414,17 +3414,17 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>CMN Emergency (PGY1/2)</t>
+          <t>MH General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>MH General Medicine (PGY1/2)</t>
+          <t>JHH Surgery - Neurosurgery (PGY1/2)</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>JHH Acute General Surgery Unit (PGY1/2)</t>
+          <t>JHH Medicine - Respiratory (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -3461,12 +3461,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>JHH General Medicine (PGY1/2)</t>
+          <t>MH General Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>MH General Surgery (PGY1/2)</t>
+          <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>98.63</t>
         </is>
       </c>
     </row>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>95.89</t>
         </is>
       </c>
     </row>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>76.71</t>
+          <t>71.23</t>
         </is>
       </c>
     </row>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>98.63</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>17.43</t>
+          <t>17.81</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>43.85</t>
+          <t>45.22</t>
         </is>
       </c>
     </row>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.04</t>
         </is>
       </c>
     </row>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>18.97</t>
+          <t>19.53</t>
         </is>
       </c>
     </row>
@@ -3689,11 +3689,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CMN Medicine - Cardiology (PGY1/2)</t>
+          <t>JHH Surgery - Vascular (PGY1/2)</t>
         </is>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -3914,11 +3914,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CMN Medicine - Medical Oncology (01) (PGY1/2)</t>
+          <t>BDH Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -4139,11 +4139,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CMN Relief (PGY1/2)</t>
+          <t>BDH Acute General Medicine &amp; Cardiology (PGY1/2)</t>
         </is>
       </c>
       <c r="C36">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -4199,11 +4199,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BDH Acute General Medicine &amp; Rehabilitation (PGY1/2)</t>
+          <t>MH KK Rehabilitation (PGY 1/2)</t>
         </is>
       </c>
       <c r="C40">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41">
@@ -4214,11 +4214,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MH  Medicine - Cardiology (PGY1/2)</t>
+          <t>JHH Surgery - Neurosurgery (PGY1/2)</t>
         </is>
       </c>
       <c r="C41">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
@@ -4289,11 +4289,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>JHH Surgery - Neurosurgery (PGY1/2)</t>
+          <t>CMN Medicine - Haematology (01) (PGY1/2)</t>
         </is>
       </c>
       <c r="C46">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -4349,11 +4349,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>JHH Surgery - Neurosurgery (PGY1/2)</t>
+          <t>JHH Medicine - Respiratory (PGY1/2)</t>
         </is>
       </c>
       <c r="C50">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -4514,11 +4514,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CMN General Medicine (PGY1/2)</t>
+          <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
         </is>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62">
@@ -4559,11 +4559,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CMN Medicine - Medical Oncology (01) (PGY1/2)</t>
+          <t>JHH General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65">
@@ -4574,11 +4574,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>JHH General Medicine (PGY1/2)</t>
+          <t>CMN Medicine - Medical Oncology (01) (PGY1/2)</t>
         </is>
       </c>
       <c r="C65">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
@@ -4589,11 +4589,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
+          <t>MH General Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="C66">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67">
@@ -4664,11 +4664,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>JHH Emergency (PGY1/2)</t>
+          <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72">
@@ -4709,11 +4709,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
+          <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C74">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
@@ -4739,11 +4739,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MH Emergency (PGY1/2)</t>
+          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
       <c r="C76">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77">
@@ -4784,11 +4784,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BDH Surgery (PGY1/2)</t>
+          <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C79">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80">
@@ -4814,11 +4814,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>JHH Surgery - Urology (PGY1/2)</t>
+          <t>JHH Acute General Surgery Unit (PGY1/2)</t>
         </is>
       </c>
       <c r="C81">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82">
@@ -4934,11 +4934,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MH General Surgery (PGY1/2)</t>
+          <t>MBH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C89">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -4949,11 +4949,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MBH Emergency (PGY1/2)</t>
+          <t>HNE Mental Health Newcastle Inpatient Unit - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -4964,11 +4964,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>HNE Mental Health Newcastle Inpatient Unit - Mater Hospital (PGY1/2)</t>
+          <t>HNE Mental Health Lake Macquarie Ward - Mater hospital (PGY1/2)</t>
         </is>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -5174,11 +5174,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>BDH Sub-Acute General Medicine (Team 5) (PGY1/2)</t>
+          <t>CMN Palliative Care (PGY1/2)</t>
         </is>
       </c>
       <c r="C105">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106">
@@ -5189,11 +5189,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>JHH General Medicine (PGY1/2)</t>
+          <t>JHH Surgery - Urology (PGY1/2)</t>
         </is>
       </c>
       <c r="C106">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107">
@@ -5384,11 +5384,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>JHH Medicine Relief (PGY1/2)</t>
+          <t>MH General Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="C119">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120">
@@ -5414,11 +5414,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>HNE Mental Health Lake Macquarie Ward - Mater hospital (PGY1/2)</t>
+          <t>JHH Medicine - Gastroenterology (PGY1/2)</t>
         </is>
       </c>
       <c r="C121">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122">
@@ -5474,11 +5474,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>JHH Medicine Relief (PGY1/2)</t>
+          <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C125">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="126">
@@ -5489,11 +5489,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>HNE Relief (PGY1/2)</t>
+          <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C126">
-        <v>59</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127">
@@ -5564,11 +5564,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MH Emergency (PGY1/2)</t>
+          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
       <c r="C131">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132">
@@ -5714,11 +5714,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>BDH Acute General Medicine (PGY1/2)</t>
+          <t>CMN Medicine - Cardiology (PGY1/2)</t>
         </is>
       </c>
       <c r="C141">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142">
@@ -5774,11 +5774,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CMN Palliative Care (PGY1/2)</t>
+          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
       <c r="C145">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146">
@@ -5834,11 +5834,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>JHH Medicine Relief (PGY1/2)</t>
+          <t>CMN Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C149">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150">
@@ -5849,11 +5849,11 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MH KK Rehabilitation (PGY 1/2)</t>
+          <t>JHH Medicine Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C150">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="151">
@@ -6014,11 +6014,11 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>JHH Surgery - Vascular (PGY1/2)</t>
+          <t>MH  Medicine - Cardiology (PGY1/2)</t>
         </is>
       </c>
       <c r="C161">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="162">
@@ -6089,11 +6089,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>JHH Medicine - Respiratory (PGY1/2)</t>
+          <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="167">
@@ -6149,11 +6149,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CMN Emergency (PGY1/2)</t>
+          <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C170">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="171">
@@ -6164,11 +6164,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>HNE Relief (PGY1/2)</t>
+          <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="C171">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="172">
@@ -6509,11 +6509,11 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>CMN Medicine - Haematology (01) (PGY1/2)</t>
+          <t>BDH Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="195">
@@ -6524,11 +6524,11 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>BDH Acute General Medicine (PGY1/2)</t>
+          <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C195">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="196">
@@ -6539,11 +6539,11 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>MH General Medicine (PGY1/2)</t>
+          <t>CMN Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="C196">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="197">
@@ -6689,11 +6689,11 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>CMN Surgery (PGY1/2)</t>
+          <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C206">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="207">
@@ -6749,11 +6749,11 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>MH General Medicine (PGY1/2)</t>
+          <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C210">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211">
@@ -6764,11 +6764,11 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>JHH Emergency (PGY1/2)</t>
+          <t>JHH General Surgery / Hepatopancreatobiliary and Upper GI Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="C211">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -6869,11 +6869,11 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>HNE Relief (PGY1/2)</t>
+          <t>MH General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="C218">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="219">
@@ -6884,11 +6884,11 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>MH General Medicine (PGY1/2)</t>
+          <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C219">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="220">
@@ -6914,11 +6914,11 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>JHH Medicine - Cardiology (PGY1/2)</t>
+          <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C221">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="222">
@@ -6959,11 +6959,11 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>MH Emergency (PGY1/2)</t>
+          <t>JHH Obstetrics &amp; Gynaecology (PGY1/2)</t>
         </is>
       </c>
       <c r="C224">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
@@ -6989,11 +6989,11 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>CMN Emergency (PGY1/2)</t>
+          <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C226">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="227">
@@ -7064,11 +7064,11 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
+          <t>BDH Acute General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="C231">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="232">
@@ -7109,11 +7109,11 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>BDH Acute General Medicine (PGY1/2)</t>
+          <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C234">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="235">
@@ -7124,11 +7124,11 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>JHH Emergency (PGY1/2)</t>
+          <t>BDH Acute General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="236">
@@ -7139,11 +7139,11 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>BDH Surgery (PGY1/2)</t>
+          <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C236">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237">
@@ -7274,11 +7274,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>BDH After Hours Internal Relief (PGY1/2)</t>
+          <t>JHH General Surgery / Upper GI (PGY1/2)</t>
         </is>
       </c>
       <c r="C245">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246">
@@ -7349,11 +7349,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>CMN Relief (PGY1/2)</t>
+          <t>MBH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C250">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="251">
@@ -7364,11 +7364,11 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>BDH Acute General Medicine &amp; Cardiology (PGY1/2)</t>
+          <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C251">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="252">
@@ -7499,11 +7499,11 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>MH General Surgery (PGY1/2)</t>
+          <t>TRRH Surgery C (PGY1/2)</t>
         </is>
       </c>
       <c r="C260">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="261">
@@ -7514,11 +7514,11 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>JHH Acute General Surgery Unit (PGY1/2)</t>
+          <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C261">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262">
@@ -7559,11 +7559,11 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>JHH Obstetrics &amp; Gynaecology (PGY1/2)</t>
+          <t>CMN Medicine - Medical Oncology (01) (PGY1/2)</t>
         </is>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265">
@@ -7574,11 +7574,11 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>CMN Medicine - Medical Oncology (01) (PGY1/2)</t>
+          <t>JHH Obstetrics &amp; Gynaecology (PGY1/2)</t>
         </is>
       </c>
       <c r="C265">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -7634,11 +7634,11 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>MBH Emergency (PGY1/2)</t>
+          <t>BDH Acute General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="C269">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="270">
@@ -7664,11 +7664,11 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>JHH Emergency (PGY1/2)</t>
+          <t>BDH After Hours Internal Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C271">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="272">
@@ -7739,11 +7739,11 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>HNE Mental Health Older People's Service - Mater Hospital (PGY1/2)</t>
+          <t>JHH Medicine - Cardiology (PGY1/2)</t>
         </is>
       </c>
       <c r="C276">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277">
@@ -7889,11 +7889,11 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>CMN General Medicine (PGY1/2)</t>
+          <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C286">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -7949,11 +7949,11 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>TRRH Surgery C (PGY1/2)</t>
+          <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="C290">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="291">
@@ -8024,11 +8024,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>JHH Obstetrics &amp; Gynaecology (PGY1/2)</t>
+          <t>JHH Surgery Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C295">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="296">
@@ -8039,11 +8039,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>JHH Surgery Relief (PGY1/2)</t>
+          <t>JHH Obstetrics &amp; Gynaecology (PGY1/2)</t>
         </is>
       </c>
       <c r="C296">
-        <v>59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297">
@@ -8099,11 +8099,11 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>BDH Surgery (PGY1/2)</t>
+          <t>BDH Sub-Acute General Medicine (Team 5) (PGY1/2)</t>
         </is>
       </c>
       <c r="C300">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="301">
@@ -8114,11 +8114,11 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>JHH Emergency (PGY1/2)</t>
+          <t>CMN Medicine - Medical Oncology (01) (PGY1/2)</t>
         </is>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="302">
@@ -8249,11 +8249,11 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
+          <t>CMN Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C310">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="311">
@@ -8459,11 +8459,11 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>JHH General Medicine (PGY1/2)</t>
+          <t>CMN Medicine - Haematology (01) (PGY1/2)</t>
         </is>
       </c>
       <c r="C324">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -8474,11 +8474,11 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>CMN Medicine - Haematology (01) (PGY1/2)</t>
+          <t>JHH General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="C325">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="326">
@@ -8489,11 +8489,11 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>JHH Obstetrics &amp; Gynaecology (PGY1/2)</t>
+          <t>HNE Mental Health Older People's Service - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
       <c r="C326">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="327">
@@ -8609,11 +8609,11 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>CMN General Medicine (PGY1/2)</t>
+          <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C334">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="335">
@@ -8624,11 +8624,11 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>JHH Medicine - Respiratory (PGY1/2)</t>
+          <t>BDH Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="C335">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="336">
@@ -8639,11 +8639,11 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>JHH Medicine - Gastroenterology (PGY1/2)</t>
+          <t>JHH Acute General Surgery Unit (PGY1/2)</t>
         </is>
       </c>
       <c r="C336">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="337">
@@ -8849,11 +8849,11 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>JHH General Surgery / Upper GI (PGY1/2)</t>
+          <t>BDH Acute General Medicine &amp; Rehabilitation (PGY1/2)</t>
         </is>
       </c>
       <c r="C350">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="351">
@@ -8864,11 +8864,11 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>JHH General Surgery / Hepatopancreatobiliary and Upper GI Surgery (PGY1/2)</t>
+          <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="C351">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="352">
@@ -8924,11 +8924,11 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>HNE Mental Health Newcastle Inpatient Unit - Mater Hospital (PGY1/2)</t>
+          <t>CMN Medicine - Haematology (01) (PGY1/2)</t>
         </is>
       </c>
       <c r="C355">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356">
@@ -8939,11 +8939,11 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>CMN Medicine - Haematology (01) (PGY1/2)</t>
+          <t>HNE Mental Health Newcastle Inpatient Unit - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
       <c r="C356">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357">
@@ -8984,11 +8984,11 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>CMN Emergency (PGY1/2)</t>
+          <t>MH General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="C359">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="360">
@@ -8999,11 +8999,11 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>MH General Medicine (PGY1/2)</t>
+          <t>JHH Surgery - Neurosurgery (PGY1/2)</t>
         </is>
       </c>
       <c r="C360">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="361">
@@ -9014,11 +9014,11 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>JHH Acute General Surgery Unit (PGY1/2)</t>
+          <t>JHH Medicine - Respiratory (PGY1/2)</t>
         </is>
       </c>
       <c r="C361">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -9074,11 +9074,11 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>JHH General Medicine (PGY1/2)</t>
+          <t>MH General Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="C365">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="366">
@@ -9089,11 +9089,11 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>MH General Surgery (PGY1/2)</t>
+          <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
         </is>
       </c>
       <c r="C366">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -9149,17 +9149,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14.2</t>
+          <t>20.6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -9226,11 +9226,6 @@
           <t>TRUE</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -9245,7 +9240,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21.2</t>
+          <t>26.8</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -9255,7 +9250,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -9314,15 +9309,10 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -9341,7 +9331,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>18.2</t>
+          <t>14.6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -9373,7 +9363,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>29.6</t>
+          <t>26.6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -9383,17 +9373,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>FALSE</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -9405,7 +9395,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>25.6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -9418,14 +9408,9 @@
           <t>TRUE</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>TRUE</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
@@ -9437,7 +9422,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14.6</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -9457,7 +9442,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -9501,7 +9486,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -9510,11 +9495,6 @@
         </is>
       </c>
       <c r="D13" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -9533,7 +9513,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>24.2</t>
+          <t>28.8</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -9553,7 +9533,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -9565,7 +9545,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -9610,11 +9590,6 @@
           <t>TRUE</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -9629,7 +9604,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>15.8</t>
+          <t>17.2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -9693,7 +9668,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>22.4</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -9713,7 +9688,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
@@ -9789,7 +9764,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>23.6</t>
+          <t>20.8</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -9799,7 +9774,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -9809,7 +9784,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -9834,11 +9809,6 @@
           <t>TRUE</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -9866,11 +9836,6 @@
           <t>TRUE</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -9885,7 +9850,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>39.8</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -9895,7 +9860,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -9905,7 +9870,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -9917,12 +9882,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>24.8</t>
+          <t>14.6</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -9949,7 +9914,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -9958,11 +9923,6 @@
         </is>
       </c>
       <c r="D27" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -10013,7 +9973,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>14.6</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -10022,11 +9982,6 @@
         </is>
       </c>
       <c r="D29" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -10045,7 +10000,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>21.2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -10055,17 +10010,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
           <t>TRUE</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -10077,7 +10027,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>20.2</t>
+          <t>16.4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -10090,14 +10040,9 @@
           <t>TRUE</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
@@ -10122,11 +10067,6 @@
           <t>TRUE</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -10141,7 +10081,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>29.6</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -10150,11 +10090,6 @@
         </is>
       </c>
       <c r="D33" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -10173,17 +10108,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>24.8</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>TRUE</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -10205,7 +10140,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>29.8</t>
+          <t>23.8</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -10282,11 +10217,6 @@
           <t>TRUE</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -10365,7 +10295,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>20.2</t>
+          <t>24.6</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -10375,7 +10305,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -10385,7 +10315,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -10429,7 +10359,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>14.6</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -10438,11 +10368,6 @@
         </is>
       </c>
       <c r="D42" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -10461,7 +10386,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -10471,7 +10396,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -10525,7 +10450,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>22.6</t>
+          <t>31.4</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -10535,7 +10460,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -10557,7 +10482,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16.8</t>
+          <t>13.6</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -10589,7 +10514,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -10621,7 +10546,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>19.6</t>
+          <t>17.8</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -10685,7 +10610,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>14.6</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10694,11 +10619,6 @@
         </is>
       </c>
       <c r="D50" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -10717,7 +10637,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>20.6</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10727,7 +10647,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -10781,7 +10701,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>18.2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10845,7 +10765,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>27.6</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -10855,7 +10775,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -10877,7 +10797,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>22.4</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -10941,7 +10861,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>20.4</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -10961,7 +10881,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -10973,7 +10893,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>24.2</t>
+          <t>17.4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -10982,11 +10902,6 @@
         </is>
       </c>
       <c r="D59" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -11037,7 +10952,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>15.6</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -11047,7 +10962,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -11057,7 +10972,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -11101,7 +11016,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16.4</t>
+          <t>22.6</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -11178,11 +11093,6 @@
           <t>TRUE</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
       <c r="F65" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -11197,7 +11107,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -11261,7 +11171,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.2</t>
+          <t>22.8</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -11271,7 +11181,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -11281,7 +11191,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -11306,11 +11216,6 @@
           <t>TRUE</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
       <c r="F69" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -11338,11 +11243,6 @@
           <t>TRUE</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
       <c r="F70" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -11357,7 +11257,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>14.6</t>
+          <t>25.2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -11367,7 +11267,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -11377,7 +11277,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -11421,7 +11321,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>22.4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -11453,7 +11353,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>18.6</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -11463,7 +11363,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -25314,7 +25214,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>JHH General Medicine (PGY1/2)</t>
+          <t>CMN Emergency (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -25336,7 +25236,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CMN General Medicine (PGY1/2)</t>
+          <t>JHH General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -25385,17 +25285,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>CMN General Medicine (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
+          <t>JHH General Medicine (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -25422,7 +25322,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
+          <t>JHH General Medicine (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -25439,7 +25339,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MH Emergency (PGY1/2)</t>
+          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -25466,7 +25366,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MH Emergency (PGY1/2)</t>
+          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -25503,7 +25403,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MH Emergency (PGY1/2)</t>
+          <t>MH General Medicine (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -25520,7 +25420,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CMN Relief (PGY1/2)</t>
+          <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -25542,17 +25442,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>MH General Surgery (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MH Emergency (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>MH General Medicine (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>CMN Relief (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -25569,22 +25469,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MH General Surgery (PGY1/2)</t>
+          <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>HNE Relief (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MH General Medicine (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>CMN Relief (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>HNE Relief (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>BDH After Hours Internal Relief (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -25606,12 +25506,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>BDH After Hours Internal Relief (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>HNE Relief (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -25623,22 +25523,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>HNE Relief (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>HNE Relief (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>HNE Relief (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>HNE Relief (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -25763,7 +25663,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HNE Relief (PGY1/2)</t>
+          <t>JHH Medicine Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -25790,7 +25690,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>HNE Relief (PGY1/2)</t>
+          <t>JHH Medicine Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -25834,12 +25734,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>JHH Medicine Relief (PGY1/2)</t>
+          <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>HNE Relief (PGY1/2)</t>
+          <t>JHH Surgery Relief (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -25851,7 +25751,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>JHH Surgery Relief (PGY1/2)</t>
+          <t>JHH Medicine Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">

--- a/PGY1_Allocations_export.xlsx
+++ b/PGY1_Allocations_export.xlsx
@@ -437,7 +437,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>JHH Medicine Relief (PGY1/2)</t>
+          <t>MH General Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>BDH Acute General Medicine &amp; Cardiology (PGY1/2)</t>
+          <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -600,17 +600,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>HNE Mental Health Newcastle Inpatient Unit - Mater Hospital (PGY1/2)</t>
+          <t>MH KK Rehabilitation (PGY 1/2)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>MH KK Rehabilitation (PGY 1/2)</t>
+          <t>HNE Mental Health Older People's Service - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>HNE Relief (PGY1/2)</t>
+          <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -632,22 +632,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>JHH Medicine Relief (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>BDH Surgery (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>JHH Surgery - Urology (PGY1/2)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>BDH Surgery (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>MH KK Rehabilitation (PGY 1/2)</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>HNE Mental Health Older People's Service - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>MH KK Rehabilitation (PGY 1/2)</t>
+          <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -810,17 +810,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>TRRH Surgery - Orthopaedics 02 (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>JHH Emergency (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>HNE Mental Health Lake Macquarie Ward - Mater hospital (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>JHH Emergency (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>TRRH Surgery - Orthopaedics 02 (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -857,12 +857,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>CMN Emergency (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>CMN Surgery (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>CMN Emergency (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -894,7 +894,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>JHH Surgery Relief (PGY1/2)</t>
+          <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>JHH Emergency (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>JHH Medicine - Respiratory (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -1141,22 +1141,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>JHH Medicine - Nephrology &amp; Dialysis (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>JHH Obstetrics &amp; Gynaecology (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>JHH Surgery Relief (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>JHH Medicine - Nephrology &amp; Dialysis (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>JHH Medicine - Cardiology (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -1230,12 +1230,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CMN Emergency (PGY1/2)</t>
+          <t>BDH After Hours Internal Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>JHH Surgery - Ear, Nose and Throat (ENT) (PGY1/2)</t>
+          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>JHH Medicine Relief (PGY1/2)</t>
+          <t>HNE Mental Health Newcastle Inpatient Unit - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>MH General Surgery (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>CMN Emergency (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>CMN Palliative Care (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>MH General Surgery (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>CMN Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>HNE Relief (PGY1/2)</t>
+          <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>CMN General Medicine (PGY1/2)</t>
+          <t>MH General Surgery (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>BDH Emergency (PGY1/2)</t>
+          <t>JHH Medicine - Cardiology (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>CMN Medicine - Cardiology (PGY1/2)</t>
+          <t>JHH Acute General Surgery Unit (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>JHH Medicine - Respiratory (PGY1/2)</t>
+          <t>BDH Acute General Medicine &amp; Cardiology (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>CMN Medicine - Gastroenterology with Drug &amp; Alcohol (PGY1/2)</t>
+          <t>JHH General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
+          <t>CMN Relief (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -1781,12 +1781,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>JHH Obstetrics &amp; Gynaecology (PGY1/2)</t>
+          <t>BDH Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>JHH Surgery - Neurosurgery (PGY1/2)</t>
+          <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
+          <t>CMN Palliative Care (PGY1/2)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1865,12 +1865,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>CMN Palliative Care (PGY1/2)</t>
+          <t>BDH Sub-Acute General Medicine (Team 5) (PGY1/2)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>CMN General Medicine (PGY1/2)</t>
+          <t>JHH Surgery - Neurosurgery (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -1897,17 +1897,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>JHH Medicine - Dermatology (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>JHH Medicine - Nephrology &amp; Dialysis (PGY1/2)</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>BDH After Hours Internal Relief (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>JHH Medicine - Dermatology (PGY1/2)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>CMN Relief (PGY1/2)</t>
+          <t>CMN Surgery (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
+          <t>MH General Medicine (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2122,7 +2122,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>JHH Medicine - Infectious Disease (PGY1/2)</t>
+          <t>JHH Surgery Relief (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2149,22 +2149,22 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
+          <t>MH General Medicine (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>HNE Mental Health Lake Macquarie Ward - Mater hospital (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>BDH Drug and Alcohol Clinical Services (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
           <t>JHH Medicine Relief (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>BDH Acute General Medicine &amp; Cardiology (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>BDH Drug and Alcohol Clinical Services (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>HNE Mental Health Lake Macquarie Ward - Mater hospital (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2196,12 +2196,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>CMN General Medicine (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2243,12 +2243,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>BDH Surgery (PGY1/2)</t>
+          <t>CMN Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>CMN Surgery (PGY1/2)</t>
+          <t>BDH Emergency (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2411,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
+          <t>JHH Surgery - Ear, Nose and Throat (ENT) (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
           <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2443,22 +2443,22 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MH General Medicine (PGY1/2)</t>
+          <t>JHH Medicine - Cardiology (PGY1/2)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>MH Emergency (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>MH Emergency (PGY1/2)</t>
-        </is>
-      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>MH General Surgery (PGY1/2)</t>
+          <t>JHH Medicine Relief (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2490,17 +2490,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>HNE Relief (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>HNE Relief (PGY1/2)</t>
-        </is>
-      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>MH Emergency (PGY1/2)</t>
+          <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2574,17 +2574,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>MH Emergency (PGY1/2)</t>
+          <t>MH General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>JHH General Medicine (PGY1/2)</t>
+          <t>HNE Mental Health Newcastle Inpatient Unit - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>HNE Mental Health Newcastle Inpatient Unit - Mater Hospital (PGY1/2)</t>
+          <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2621,12 +2621,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>BDH Sub-Acute General Medicine (Team 5) (PGY1/2)</t>
+          <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>CMN Surgery (PGY1/2)</t>
+          <t>CMN Medicine - Cardiology (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>MH Emergency (PGY1/2)</t>
+          <t>JHH Surgery - Urology (PGY1/2)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>JHH Surgery - Urology (PGY1/2)</t>
+          <t>JHH Surgery Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>JHH Surgery Relief (PGY1/2)</t>
+          <t>JHH Medicine - Gastroenterology (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>JHH Emergency (PGY1/2)</t>
+          <t>JHH Medicine - Infectious Disease (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2873,12 +2873,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
+          <t>JHH Medicine Relief (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
           <t>CMN Medicine - Haematology (01) (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>JHH Medicine Relief (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2915,12 +2915,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
+          <t>CMN Medicine - Gastroenterology with Drug &amp; Alcohol (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
           <t>JHH Emergency (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>JHH Medicine - Gastroenterology (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>JHH General Surgery / Trauma (PGY1/2)</t>
+          <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>HNE Relief (PGY1/2)</t>
+          <t>CMN Emergency (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>JHH Acute General Surgery Unit (PGY1/2)</t>
+          <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -3199,22 +3199,22 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
+          <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
           <t>JHH Surgery - Urology (PGY1/2)</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>HNE Mental Health Lake Macquarie Ward - Mater hospital (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
         <is>
           <t>TRRH Surgery - Orthopaedics 02 (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>HNE Mental Health Lake Macquarie Ward - Mater hospital (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>JHH Surgery Relief (PGY1/2)</t>
+          <t>MH KK Rehabilitation (PGY 1/2)</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3367,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
+          <t>JHH Emergency (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
           <t>MH General Surgery (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>MH General Surgery (PGY1/2)</t>
+          <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3577,12 +3577,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
+          <t>JHH Surgery - Urology (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
           <t>JHH Emergency (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>JHH Surgery - Urology (PGY1/2)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3619,17 +3619,17 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
+          <t>JHH Surgery Relief (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>JHH Medicine - Gastroenterology (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>BDH Acute General Medicine &amp; Rehabilitation (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>JHH Medicine - Gastroenterology (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3703,17 +3703,17 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
+          <t>JHH General Surgery / Trauma (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>BDH Acute General Medicine &amp; Cardiology (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>JHH Medicine - Dermatology (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>MH General Medicine (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>BDH After Hours Internal Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3792,17 +3792,17 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>HNE Mental Health Newcastle Inpatient Unit - Mater Hospital (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>CMN Medicine - Haematology (01) (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
           <t>JHH Medicine Relief (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>HNE Mental Health Newcastle Inpatient Unit - Mater Hospital (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>CMN Medicine - Haematology (01) (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>JHH Medicine - Cardiology (PGY1/2)</t>
+          <t>BDH Acute General Medicine &amp; Rehabilitation (PGY1/2)</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>BDH Acute General Medicine &amp; Rehabilitation (PGY1/2)</t>
+          <t>JHH Medicine - Respiratory (PGY1/2)</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3939,7 +3939,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>96.43</t>
         </is>
       </c>
     </row>
@@ -4008,48 +4008,72 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Average Preference of Assigned Terms</t>
+          <t>At least 2 term in Top 5 (%)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>19.75</t>
+          <t>96.43</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Average Max of Assigned Preferences</t>
+          <t>At least 3 term in Top 5 (%)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>47.89</t>
+          <t>58.33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Average Min of Assigned Preferences</t>
+          <t>Average Preference of Assigned Terms</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>19.81</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Average Max of Assigned Preferences</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>48.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Average Min of Assigned Preferences</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Average SD of Assigned Preferences</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>20.75</t>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>21.08</t>
         </is>
       </c>
     </row>
@@ -4136,11 +4160,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>JHH Medicine Relief (PGY1/2)</t>
+          <t>MH General Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -4376,11 +4400,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BDH Acute General Medicine &amp; Cardiology (PGY1/2)</t>
+          <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22">
@@ -4421,11 +4445,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HNE Mental Health Newcastle Inpatient Unit - Mater Hospital (PGY1/2)</t>
+          <t>MH KK Rehabilitation (PGY 1/2)</t>
         </is>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
@@ -4436,11 +4460,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MH KK Rehabilitation (PGY 1/2)</t>
+          <t>HNE Mental Health Older People's Service - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
       <c r="C25">
-        <v>47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -4451,11 +4475,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HNE Relief (PGY1/2)</t>
+          <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C26">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27">
@@ -4466,11 +4490,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>JHH Surgery - Urology (PGY1/2)</t>
+          <t>JHH Medicine Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -4496,11 +4520,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MH KK Rehabilitation (PGY 1/2)</t>
+          <t>JHH Surgery - Urology (PGY1/2)</t>
         </is>
       </c>
       <c r="C29">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -4511,11 +4535,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HNE Mental Health Older People's Service - Mater Hospital (PGY1/2)</t>
+          <t>MH KK Rehabilitation (PGY 1/2)</t>
         </is>
       </c>
       <c r="C30">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -4601,11 +4625,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MH KK Rehabilitation (PGY 1/2)</t>
+          <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C36">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
@@ -4796,11 +4820,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>HNE Mental Health Lake Macquarie Ward - Mater hospital (PGY1/2)</t>
+          <t>TRRH Surgery - Orthopaedics 02 (PGY1/2)</t>
         </is>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50">
@@ -4826,11 +4850,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRRH Surgery - Orthopaedics 02 (PGY1/2)</t>
+          <t>HNE Mental Health Lake Macquarie Ward - Mater hospital (PGY1/2)</t>
         </is>
       </c>
       <c r="C51">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -4886,11 +4910,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CMN Surgery (PGY1/2)</t>
+          <t>CMN Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C55">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56">
@@ -4901,11 +4925,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CMN Emergency (PGY1/2)</t>
+          <t>CMN Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="C56">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57">
@@ -4946,11 +4970,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>JHH Surgery Relief (PGY1/2)</t>
+          <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C59">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60">
@@ -5036,11 +5060,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>JHH Medicine - Respiratory (PGY1/2)</t>
+          <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C65">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -5051,11 +5075,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>JHH Emergency (PGY1/2)</t>
+          <t>JHH Medicine - Respiratory (PGY1/2)</t>
         </is>
       </c>
       <c r="C66">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -5381,11 +5405,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>JHH Surgery Relief (PGY1/2)</t>
+          <t>JHH Medicine - Nephrology &amp; Dialysis (PGY1/2)</t>
         </is>
       </c>
       <c r="C88">
-        <v>58</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -5396,11 +5420,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>JHH Medicine - Nephrology &amp; Dialysis (PGY1/2)</t>
+          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90">
@@ -5411,11 +5435,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
+          <t>JHH Obstetrics &amp; Gynaecology (PGY1/2)</t>
         </is>
       </c>
       <c r="C90">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -5426,11 +5450,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>JHH Medicine - Cardiology (PGY1/2)</t>
+          <t>JHH Surgery Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92">
@@ -5546,11 +5570,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CMN Emergency (PGY1/2)</t>
+          <t>BDH After Hours Internal Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C99">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100">
@@ -5561,11 +5585,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>JHH Surgery - Ear, Nose and Throat (ENT) (PGY1/2)</t>
+          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
@@ -5651,11 +5675,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>JHH Medicine Relief (PGY1/2)</t>
+          <t>HNE Mental Health Newcastle Inpatient Unit - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
       <c r="C106">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -5831,11 +5855,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CMN Palliative Care (PGY1/2)</t>
+          <t>MH General Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="C118">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119">
@@ -5846,11 +5870,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MH General Surgery (PGY1/2)</t>
+          <t>CMN Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C119">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120">
@@ -5861,11 +5885,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CMN Emergency (PGY1/2)</t>
+          <t>CMN Palliative Care (PGY1/2)</t>
         </is>
       </c>
       <c r="C120">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
@@ -5921,11 +5945,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>HNE Relief (PGY1/2)</t>
+          <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="C124">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125">
@@ -5951,11 +5975,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CMN General Medicine (PGY1/2)</t>
+          <t>MH General Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="C126">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="127">
@@ -6026,11 +6050,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>BDH Emergency (PGY1/2)</t>
+          <t>JHH Medicine - Cardiology (PGY1/2)</t>
         </is>
       </c>
       <c r="C131">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -6101,11 +6125,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CMN Medicine - Cardiology (PGY1/2)</t>
+          <t>JHH Acute General Surgery Unit (PGY1/2)</t>
         </is>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137">
@@ -6176,11 +6200,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>JHH Medicine - Respiratory (PGY1/2)</t>
+          <t>BDH Acute General Medicine &amp; Cardiology (PGY1/2)</t>
         </is>
       </c>
       <c r="C141">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142">
@@ -6386,11 +6410,11 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CMN Medicine - Gastroenterology with Drug &amp; Alcohol (PGY1/2)</t>
+          <t>JHH General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="C155">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="156">
@@ -6461,11 +6485,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
+          <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C160">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="161">
@@ -6476,11 +6500,11 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CMN Relief (PGY1/2)</t>
+          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
       <c r="C161">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="162">
@@ -6536,11 +6560,11 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>JHH Obstetrics &amp; Gynaecology (PGY1/2)</t>
+          <t>BDH Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166">
@@ -6551,11 +6575,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>JHH Surgery - Neurosurgery (PGY1/2)</t>
+          <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="C166">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="167">
@@ -6656,11 +6680,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
+          <t>CMN Palliative Care (PGY1/2)</t>
         </is>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174">
@@ -6686,11 +6710,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>CMN Palliative Care (PGY1/2)</t>
+          <t>BDH Sub-Acute General Medicine (Team 5) (PGY1/2)</t>
         </is>
       </c>
       <c r="C175">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176">
@@ -6701,11 +6725,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>CMN General Medicine (PGY1/2)</t>
+          <t>JHH Surgery - Neurosurgery (PGY1/2)</t>
         </is>
       </c>
       <c r="C176">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="177">
@@ -6731,11 +6755,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>JHH Medicine - Nephrology &amp; Dialysis (PGY1/2)</t>
+          <t>JHH Medicine - Dermatology (PGY1/2)</t>
         </is>
       </c>
       <c r="C178">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179">
@@ -6746,11 +6770,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>BDH After Hours Internal Relief (PGY1/2)</t>
+          <t>JHH Medicine - Nephrology &amp; Dialysis (PGY1/2)</t>
         </is>
       </c>
       <c r="C179">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180">
@@ -6761,11 +6785,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>JHH Medicine - Dermatology (PGY1/2)</t>
+          <t>BDH After Hours Internal Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C180">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="181">
@@ -6926,11 +6950,11 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>CMN Relief (PGY1/2)</t>
+          <t>CMN Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="C191">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="192">
@@ -7001,11 +7025,11 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
+          <t>MH General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="C196">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="197">
@@ -7151,11 +7175,11 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>JHH Medicine - Infectious Disease (PGY1/2)</t>
+          <t>JHH Surgery Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C206">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="207">
@@ -7181,11 +7205,11 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>JHH Medicine Relief (PGY1/2)</t>
+          <t>MH General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="C208">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="209">
@@ -7196,11 +7220,11 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>BDH Acute General Medicine &amp; Cardiology (PGY1/2)</t>
+          <t>HNE Mental Health Lake Macquarie Ward - Mater hospital (PGY1/2)</t>
         </is>
       </c>
       <c r="C209">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210">
@@ -7226,11 +7250,11 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>HNE Mental Health Lake Macquarie Ward - Mater hospital (PGY1/2)</t>
+          <t>JHH Medicine Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C211">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="212">
@@ -7271,11 +7295,11 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>CMN General Medicine (PGY1/2)</t>
+          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
       <c r="C214">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215">
@@ -7286,11 +7310,11 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
+          <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="C215">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216">
@@ -7361,11 +7385,11 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>BDH Surgery (PGY1/2)</t>
+          <t>CMN Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="C220">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="221">
@@ -7376,11 +7400,11 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>CMN Surgery (PGY1/2)</t>
+          <t>BDH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C221">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="222">
@@ -7661,11 +7685,11 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
+          <t>JHH Surgery - Ear, Nose and Throat (ENT) (PGY1/2)</t>
         </is>
       </c>
       <c r="C240">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -7676,11 +7700,11 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MH Emergency (PGY1/2)</t>
+          <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
         </is>
       </c>
       <c r="C241">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="242">
@@ -7706,11 +7730,11 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>MH General Medicine (PGY1/2)</t>
+          <t>JHH Medicine - Cardiology (PGY1/2)</t>
         </is>
       </c>
       <c r="C243">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244">
@@ -7721,11 +7745,11 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
+          <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C244">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="245">
@@ -7736,11 +7760,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>MH Emergency (PGY1/2)</t>
+          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
       <c r="C245">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="246">
@@ -7751,11 +7775,11 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>MH General Surgery (PGY1/2)</t>
+          <t>JHH Medicine Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C246">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="247">
@@ -7796,11 +7820,11 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
+          <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C249">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="250">
@@ -7811,11 +7835,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>HNE Relief (PGY1/2)</t>
+          <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
       <c r="C250">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="251">
@@ -7826,11 +7850,11 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>MH Emergency (PGY1/2)</t>
+          <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="C251">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="252">
@@ -7946,11 +7970,11 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>MH Emergency (PGY1/2)</t>
+          <t>MH General Medicine (PGY1/2)</t>
         </is>
       </c>
       <c r="C259">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="260">
@@ -7961,11 +7985,11 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>JHH General Medicine (PGY1/2)</t>
+          <t>HNE Mental Health Newcastle Inpatient Unit - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
       <c r="C260">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261">
@@ -7976,11 +8000,11 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>HNE Mental Health Newcastle Inpatient Unit - Mater Hospital (PGY1/2)</t>
+          <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C261">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262">
@@ -8036,11 +8060,11 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>BDH Sub-Acute General Medicine (Team 5) (PGY1/2)</t>
+          <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
         </is>
       </c>
       <c r="C265">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="266">
@@ -8051,11 +8075,11 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>CMN Surgery (PGY1/2)</t>
+          <t>CMN Medicine - Cardiology (PGY1/2)</t>
         </is>
       </c>
       <c r="C266">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267">
@@ -8291,11 +8315,11 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>MH Emergency (PGY1/2)</t>
+          <t>JHH Surgery - Urology (PGY1/2)</t>
         </is>
       </c>
       <c r="C282">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283">
@@ -8321,11 +8345,11 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>JHH Surgery - Urology (PGY1/2)</t>
+          <t>JHH Surgery Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C284">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="285">
@@ -8351,11 +8375,11 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>JHH Surgery Relief (PGY1/2)</t>
+          <t>JHH Medicine - Gastroenterology (PGY1/2)</t>
         </is>
       </c>
       <c r="C286">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="287">
@@ -8426,11 +8450,11 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>JHH Emergency (PGY1/2)</t>
+          <t>JHH Medicine - Infectious Disease (PGY1/2)</t>
         </is>
       </c>
       <c r="C291">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292">
@@ -8486,11 +8510,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>CMN Medicine - Haematology (01) (PGY1/2)</t>
+          <t>JHH Medicine Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C295">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="296">
@@ -8501,11 +8525,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>JHH Medicine Relief (PGY1/2)</t>
+          <t>CMN Medicine - Haematology (01) (PGY1/2)</t>
         </is>
       </c>
       <c r="C296">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297">
@@ -8561,11 +8585,11 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>JHH Emergency (PGY1/2)</t>
+          <t>CMN Medicine - Gastroenterology with Drug &amp; Alcohol (PGY1/2)</t>
         </is>
       </c>
       <c r="C300">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301">
@@ -8576,11 +8600,11 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>JHH Medicine - Gastroenterology (PGY1/2)</t>
+          <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="302">
@@ -8606,11 +8630,11 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>JHH General Surgery / Trauma (PGY1/2)</t>
+          <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C303">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="304">
@@ -8726,11 +8750,11 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>HNE Relief (PGY1/2)</t>
+          <t>CMN Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C311">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="312">
@@ -8801,11 +8825,11 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>JHH Acute General Surgery Unit (PGY1/2)</t>
+          <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C316">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="317">
@@ -9056,11 +9080,11 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>JHH Surgery - Urology (PGY1/2)</t>
+          <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
         </is>
       </c>
       <c r="C333">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="334">
@@ -9071,11 +9095,11 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TRRH Surgery - Orthopaedics 02 (PGY1/2)</t>
+          <t>JHH Surgery - Urology (PGY1/2)</t>
         </is>
       </c>
       <c r="C334">
-        <v>59</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335">
@@ -9101,11 +9125,11 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
+          <t>TRRH Surgery - Orthopaedics 02 (PGY1/2)</t>
         </is>
       </c>
       <c r="C336">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="337">
@@ -9176,11 +9200,11 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>JHH Surgery Relief (PGY1/2)</t>
+          <t>MH KK Rehabilitation (PGY 1/2)</t>
         </is>
       </c>
       <c r="C341">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="342">
@@ -9356,11 +9380,11 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>MH General Surgery (PGY1/2)</t>
+          <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C353">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -9371,11 +9395,11 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>JHH Emergency (PGY1/2)</t>
+          <t>MH General Surgery (PGY1/2)</t>
         </is>
       </c>
       <c r="C354">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="355">
@@ -9461,11 +9485,11 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>MH General Surgery (PGY1/2)</t>
+          <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C360">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="361">
@@ -9731,11 +9755,11 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>JHH Emergency (PGY1/2)</t>
+          <t>JHH Surgery - Urology (PGY1/2)</t>
         </is>
       </c>
       <c r="C378">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379">
@@ -9746,11 +9770,11 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>JHH Surgery - Urology (PGY1/2)</t>
+          <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="C379">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -9806,11 +9830,11 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>BDH Acute General Medicine &amp; Rehabilitation (PGY1/2)</t>
+          <t>JHH Surgery Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C383">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="384">
@@ -9836,11 +9860,11 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>HNE Relief (PGY1/2)</t>
+          <t>BDH Acute General Medicine &amp; Rehabilitation (PGY1/2)</t>
         </is>
       </c>
       <c r="C385">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="386">
@@ -9956,11 +9980,11 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>JHH Medicine - Dermatology (PGY1/2)</t>
+          <t>JHH General Surgery / Trauma (PGY1/2)</t>
         </is>
       </c>
       <c r="C393">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="394">
@@ -9971,11 +9995,11 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>MH General Medicine (PGY1/2)</t>
+          <t>BDH Acute General Medicine &amp; Cardiology (PGY1/2)</t>
         </is>
       </c>
       <c r="C394">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="395">
@@ -9986,11 +10010,11 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>BDH After Hours Internal Relief (PGY1/2)</t>
+          <t>JHH Medicine - Dermatology (PGY1/2)</t>
         </is>
       </c>
       <c r="C395">
-        <v>59</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396">
@@ -10121,11 +10145,11 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>JHH Medicine Relief (PGY1/2)</t>
+          <t>HNE Mental Health Newcastle Inpatient Unit - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
       <c r="C404">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="405">
@@ -10136,11 +10160,11 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>HNE Mental Health Newcastle Inpatient Unit - Mater Hospital (PGY1/2)</t>
+          <t>CMN Medicine - Haematology (01) (PGY1/2)</t>
         </is>
       </c>
       <c r="C405">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406">
@@ -10151,11 +10175,11 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>CMN Medicine - Haematology (01) (PGY1/2)</t>
+          <t>JHH Medicine Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C406">
-        <v>2</v>
+        <v>53</v>
       </c>
     </row>
     <row r="407">
@@ -10256,11 +10280,11 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>JHH Medicine - Cardiology (PGY1/2)</t>
+          <t>BDH Acute General Medicine &amp; Rehabilitation (PGY1/2)</t>
         </is>
       </c>
       <c r="C413">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="414">
@@ -10286,11 +10310,11 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>BDH Acute General Medicine &amp; Rehabilitation (PGY1/2)</t>
+          <t>JHH Medicine - Respiratory (PGY1/2)</t>
         </is>
       </c>
       <c r="C415">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="416">
@@ -10404,17 +10428,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg_Score</t>
+          <t>Avg_Preference</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>SubSpecialty_Compliance</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Specialty_Compliance</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Subspecialty_Compliance</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -10436,7 +10460,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>31.6</t>
+          <t>30.8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -10446,7 +10470,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -10456,7 +10480,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -10532,7 +10556,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>15.8</t>
+          <t>22.6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -10564,7 +10588,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>30.4</t>
+          <t>31.4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -10574,7 +10598,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -10596,7 +10620,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -10628,7 +10652,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>22.6</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -10648,7 +10672,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
@@ -10680,7 +10704,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -10744,7 +10768,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -10788,7 +10812,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>30.2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -10872,7 +10896,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -10904,7 +10928,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -10980,7 +11004,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>23.4</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -11044,7 +11068,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>21.8</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -11064,7 +11088,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
@@ -11076,7 +11100,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>25.2</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -11086,7 +11110,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -11204,7 +11228,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>31.4</t>
+          <t>30.2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -11214,7 +11238,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -11236,7 +11260,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -11256,7 +11280,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -11268,7 +11292,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>20.4</t>
+          <t>27.8</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -11300,7 +11324,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -11396,7 +11420,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>11.8</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -11460,7 +11484,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>24.4</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -11480,7 +11504,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -11512,7 +11536,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -11524,7 +11548,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>17.6</t>
+          <t>27.4</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -11534,7 +11558,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -11620,7 +11644,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>26.6</t>
+          <t>24.4</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -11630,7 +11654,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -11640,7 +11664,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -11652,7 +11676,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -11672,7 +11696,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -11716,7 +11740,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -11748,7 +11772,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>20.4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -11812,7 +11836,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>29.6</t>
+          <t>28.8</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -11940,7 +11964,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>13.4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -11972,7 +11996,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>34.2</t>
+          <t>26.4</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -12004,7 +12028,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>31.4</t>
+          <t>24.2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -12024,7 +12048,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -12068,7 +12092,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>25.2</t>
+          <t>19.8</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -12100,7 +12124,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>23.8</t>
+          <t>17.4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -12228,7 +12252,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>14.2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -12248,7 +12272,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -12260,7 +12284,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>26.6</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -12324,7 +12348,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -12356,7 +12380,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>20.6</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12376,7 +12400,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
@@ -12388,7 +12412,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>21.4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -12398,7 +12422,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -12420,7 +12444,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>23.6</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -12580,7 +12604,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>24.4</t>
+          <t>23.4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -12590,7 +12614,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -12708,7 +12732,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>21.8</t>
+          <t>23.8</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -12868,7 +12892,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>28.8</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -12932,7 +12956,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>27.6</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -12942,7 +12966,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -12952,7 +12976,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -13060,7 +13084,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>14.2</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -13070,7 +13094,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -13112,7 +13136,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -28945,7 +28969,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CMN General Medicine (PGY1/2)</t>
+          <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -28957,7 +28981,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CMN Relief (PGY1/2)</t>
+          <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -28984,12 +29008,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>CMN Relief (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>HNE Relief (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -29053,7 +29077,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CMN Relief (PGY1/2)</t>
+          <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -29080,12 +29104,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>HNE Relief (PGY1/2)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>CMN Relief (PGY1/2)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>MH General Medicine (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -29112,7 +29136,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>HNE Relief (PGY1/2)</t>
+          <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
     </row>
@@ -29146,7 +29170,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JHH Medicine Relief (PGY1/2)</t>
+          <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -29178,7 +29202,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>HNE Relief (PGY1/2)</t>
+          <t>JHH Medicine Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -29195,7 +29219,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>HNE Relief (PGY1/2)</t>
+          <t>JHH Medicine Relief (PGY1/2)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -29222,7 +29246,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>JHH Medicine Relief (PGY1/2)</t>
+          <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
     </row>

--- a/PGY1_Allocations_export.xlsx
+++ b/PGY1_Allocations_export.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,25 +380,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Any further comments or questions?</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Assignment1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Assignment2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Assignment3</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Assignment4</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Assignment5</t>
         </is>
@@ -422,25 +427,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>I would really appreciate having my relief term and therefore being able to take my 4 weeks of leave during term 3 as I am the best man in a wedding on the 24th of August 2024 and I am also in the wedding party for another wedding on the 31st of August 2024 and both of these weddings are in Canada</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>MH General Surgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>TRRH General Medicine 08 (PGY1/2)</t>
         </is>
@@ -464,25 +474,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>BDH Acute General Medicine &amp; Cardiology (PGY1/2)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>MH  Medicine - Cardiology (PGY1/2)</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>BDH Surgery (PGY1/2)</t>
         </is>
@@ -506,25 +521,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>BDH After Hours Internal Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>CMN Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>JHH Surgery - Vascular (PGY1/2)</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>JHH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>JHH Surgery - Urology (PGY1/2)</t>
         </is>
@@ -548,25 +568,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>JHH General Surgery / Trauma (PGY1/2)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>JHH Surgery - Neurosurgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>MH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>HNE Relief (PGY1/2)</t>
         </is>
@@ -590,25 +615,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>My Wife is pregnant and due the 20th of April. So if possible it would be best to have my relief rotation term 2.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>JHH Medicine Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>HNE Mental Health Lake Macquarie Ward - Mater hospital (PGY1/2)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>MH KK Rehabilitation (PGY 1/2)</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>HNE Mental Health Older People's Service - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>MH Emergency (PGY1/2)</t>
         </is>
@@ -632,25 +662,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>JHH Medicine Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>BDH Surgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>JHH Surgery - Urology (PGY1/2)</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>MH KK Rehabilitation (PGY 1/2)</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>CMN Medicine - Medical Oncology (01) (PGY1/2)</t>
         </is>
@@ -674,25 +709,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>JHH Acute General Surgery Unit (PGY1/2)</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>JHH Surgery - Neurosurgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>BDH After Hours Internal Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>JHH Surgery - Cardiothoracic Surgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>MH Emergency (PGY1/2)</t>
         </is>
@@ -716,25 +756,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>MH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>JHH Medicine - Gastroenterology (PGY1/2)</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
@@ -758,25 +803,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>Preferences would be for two regional terms if possible during terms 1 and 2. _x000D_
+Elective preference is either a acute care surgery term or second ED term</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>TRRH Surgery - Orthopaedics 02 (PGY1/2)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>TRRH Surgery C (PGY1/2)</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>JHH Acute General Surgery Unit (PGY1/2)</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
@@ -800,25 +851,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>JHH Surgery Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>TRRH Surgery - Orthopaedics 02 (PGY1/2)</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>HNE Mental Health Lake Macquarie Ward - Mater hospital (PGY1/2)</t>
         </is>
@@ -842,25 +898,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>JHH Medicine - Nephrology &amp; Dialysis (PGY1/2)</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>CMN Medicine - Haematology (01) (PGY1/2)</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>CMN Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>CMN Surgery (PGY1/2)</t>
         </is>
@@ -884,25 +945,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>MH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>TRRH Surgery C (PGY1/2)</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
@@ -926,25 +992,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>MH General Surgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>BDH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>TRRH General Medicine 08 (PGY1/2)</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>JHH Medicine - Respiratory (PGY1/2)</t>
         </is>
@@ -968,25 +1039,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>TRRH General Medicine 08 (PGY1/2)</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>HNE Mental Health &amp; Substance Use Service - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
@@ -1010,25 +1086,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>JHH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>JHH Medicine - Cardiology (PGY1/2)</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
@@ -1052,25 +1133,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>BDH After Hours Internal Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>MH General Surgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>JHH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>CMN Medicine - Medical Oncology (01) (PGY1/2)</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
@@ -1094,25 +1180,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>MH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>JHH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>CMN Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>BDH After Hours Internal Relief (PGY1/2)</t>
         </is>
@@ -1136,25 +1227,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>JHH Acute General Surgery Unit (PGY1/2)</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>JHH Medicine - Nephrology &amp; Dialysis (PGY1/2)</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>JHH Obstetrics &amp; Gynaecology (PGY1/2)</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>JHH Surgery Relief (PGY1/2)</t>
         </is>
@@ -1178,25 +1274,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>JHH Surgery - Cardiothoracic Surgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>CMN Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>JHH General Surgery / Colorectal (PGY1/2)</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
@@ -1220,25 +1321,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>I would love an ENT rotation, however preferably not for Term 1. Furthermore, would prefer not to have leave in Term 1 also. Many thanks for all your help!</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>JHH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>BDH After Hours Internal Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>JHH General Surgery / Trauma (PGY1/2)</t>
         </is>
@@ -1262,25 +1368,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>MBH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>JHH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>HNE Mental Health Newcastle Inpatient Unit - Mater Hospital (PGY1/2)</t>
         </is>
@@ -1304,25 +1415,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>Thanks!</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>MH General Surgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>BDH Emergency (PGY1/2)</t>
         </is>
@@ -1346,25 +1462,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>If MBH or TRRH term is given, if at all possible could it be matched with Samantha Rogers. Thank you!</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>MH KK Rehabilitation (PGY 1/2)</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>JHH Surgery - Vascular (PGY1/2)</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>JHH Surgery - Neurosurgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>JHH Medicine - Cardiology (PGY1/2)</t>
         </is>
@@ -1388,25 +1509,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>JHH Medicine - Infectious Disease (PGY1/2)</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>MH General Surgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>CMN Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>CMN Palliative Care (PGY1/2)</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>JHH Acute General Surgery Unit (PGY1/2)</t>
         </is>
@@ -1430,25 +1556,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>We need more information re how ranking system functions, perhaps a QnA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>BDH After Hours Internal Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>JHH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>MH General Surgery (PGY1/2)</t>
         </is>
@@ -1472,25 +1603,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>JHH Medicine - Cardiology (PGY1/2)</t>
         </is>
@@ -1514,25 +1650,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>HNE Mental Health &amp; Substance Use Service - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>HNE Mental Health Newcastle Inpatient Unit - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>BDH Surgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>MH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>JHH Acute General Surgery Unit (PGY1/2)</t>
         </is>
@@ -1556,25 +1697,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>If I get a Neurosurgery rotation I would rather it be in term 4 or 5 if that can be accommodated.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>JHH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>JHH Surgery - Neurosurgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>CMN Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>BDH Acute General Medicine &amp; Cardiology (PGY1/2)</t>
         </is>
@@ -1598,25 +1744,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>CMN Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>JHH Medicine Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>HNE Mental Health &amp; Substance Use Service - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>MH General Medicine (PGY1/2)</t>
         </is>
@@ -1640,25 +1791,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>JHH Surgery - Neurosurgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>JHH General Surgery / Trauma (PGY1/2)</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>CMN General Medicine (PGY1/2)</t>
         </is>
@@ -1682,25 +1838,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>JHH Surgery - Orthopaedics (Team 6) (PGY1/2)</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>JHH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>JHH Surgery - Urology (PGY1/2)</t>
         </is>
@@ -1724,25 +1885,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>I am aiming to (hopefully) attend a family wedding in England on June 4th- hence my response to Q4. I don't know if I would need more than two weeks for this but around two weeks leave would be what I am aiming for.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>CMN Medicine - Medical Oncology (01) (PGY1/2)</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>CMN Medicine - Gastroenterology with Drug &amp; Alcohol (PGY1/2)</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>CMN Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
@@ -1766,25 +1932,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>JHH Surgery - Orthopaedics (Team 6) (PGY1/2)</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>BDH Surgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>CMN General Medicine (PGY1/2)</t>
         </is>
@@ -1808,25 +1979,32 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>My primary interest is in paediatrics and if going to a rural or remote term (which I understand everyone does) I'd prefer Tamworth as my husband's family is based there. _x000D_
+_x000D_
+Thanks!</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>CMN Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>JHH Medicine Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>JHH Medicine - Rheumatology (PGY1/2)</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
@@ -1850,25 +2028,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>MH KK Rehabilitation (PGY 1/2)</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>CMN Palliative Care (PGY1/2)</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>BDH Sub-Acute General Medicine (Team 5) (PGY1/2)</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>JHH Surgery - Neurosurgery (PGY1/2)</t>
         </is>
@@ -1892,25 +2075,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>It would be helpful if next time the terms are grouped by category and we list top 5 from each. Thanks :)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>JHH Medicine - Cardiology (PGY1/2)</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>JHH Medicine - Dermatology (PGY1/2)</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>JHH Medicine - Nephrology &amp; Dialysis (PGY1/2)</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>BDH After Hours Internal Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
@@ -1934,25 +2122,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>JHH Surgery - Vascular (PGY1/2)</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>JHH Medicine - Respiratory (PGY1/2)</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>MH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>JHH Obstetrics &amp; Gynaecology (PGY1/2)</t>
         </is>
@@ -1976,25 +2169,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>JHH Medicine - Respiratory (PGY1/2)</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>CMN Surgery (PGY1/2)</t>
         </is>
@@ -2018,25 +2216,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>CMN Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>CMN Surgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>CMN Medicine - Cardiology (PGY1/2)</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>MH General Medicine (PGY1/2)</t>
         </is>
@@ -2060,25 +2263,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>Would be keen and more than willing to do the older persons mental health term but would prefer it not be my first rotation if at all possible, just so I can get used to the HNE health system in a more core term and adjust to the area. Thank you so much :)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>JHH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>JHH Surgery - Urology (PGY1/2)</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
@@ -2102,25 +2310,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>CMN Surgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>JHH Medicine - Gastroenterology (PGY1/2)</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>JHH Surgery Relief (PGY1/2)</t>
         </is>
@@ -2144,25 +2357,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>BDH Acute General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>MH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>HNE Mental Health Lake Macquarie Ward - Mater hospital (PGY1/2)</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>BDH Drug and Alcohol Clinical Services (PGY1/2)</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>JHH Medicine Relief (PGY1/2)</t>
         </is>
@@ -2186,25 +2404,36 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>Dear Team,_x000D_
+_x000D_
+Due to an interest in psychiatry, it would be deeply appreciated if I could be assigned a Psychiatry placement plus Surgery/Medicine during Term 1 and 2, as references are required before applications are due in August, and I would absolutely love to apply next year._x000D_
+_x000D_
+Secondly my partner Matthew Pierce (fellow HNE intern) and I would be very grateful if we could have our relief terms together so that we have the option to take leave at the same time if possible._x000D_
+_x000D_
+Thank you very much for your work, we are deeply grateful for your consideration of our circumstances!</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>HNE Mental Health Older People's Service - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>HNE Mental Health &amp; Substance Use Service - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>HNE Relief (PGY1/2)</t>
         </is>
@@ -2228,25 +2457,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>JHH Medicine - Gastroenterology (PGY1/2)</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>JHH Medicine - Neurology (PGY1/2)</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>CMN Surgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>BDH Emergency (PGY1/2)</t>
         </is>
@@ -2270,25 +2504,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>JHH Surgery - Urology (PGY1/2)</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
         </is>
@@ -2312,25 +2551,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>JHH Medicine - Cardiology (PGY1/2)</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>JHH Obstetrics &amp; Gynaecology (PGY1/2)</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>JHH Medicine - MACU (PGY1/2)</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>MH Emergency (PGY1/2)</t>
         </is>
@@ -2354,25 +2598,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>I am working towards/planning to sit the GSSE (surgical exam) earliest June or October next year.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>JHH Medicine - Respiratory (PGY1/2)</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>JHH Medicine - Gastroenterology (PGY1/2)</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>MH General Surgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>CMN Relief (PGY1/2)</t>
         </is>
@@ -2396,25 +2645,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>If an ophthalmology placement is possible this is my number 1 preference please.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>JHH Acute General Surgery Unit (PGY1/2)</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>JHH Surgery - Ear, Nose and Throat (ENT) (PGY1/2)</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
         </is>
@@ -2438,25 +2692,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>JHH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>JHH Medicine - Cardiology (PGY1/2)</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>JHH Medicine Relief (PGY1/2)</t>
         </is>
@@ -2480,25 +2739,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>BDH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>BDH Drug and Alcohol Clinical Services (PGY1/2)</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>CMN General Medicine (PGY1/2)</t>
         </is>
@@ -2522,25 +2786,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>JHH General Surgery / Hepatopancreatobiliary and Upper GI Surgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>JHH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>JHH Surgery - Oral Maxillofacial (OMF) (PGY1/2)</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>JHH Surgery - Cardiothoracic Surgery (PGY1/2)</t>
         </is>
@@ -2564,25 +2833,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>CMN Medicine - Cardiology (PGY1/2)</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>MH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>HNE Mental Health Newcastle Inpatient Unit - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
@@ -2606,25 +2880,31 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>I would be very much appreciate having the same relief term as my partner and fellow intern Judy Li if possible, so that we may be able to take leave together._x000D_
+I understand the ophthalmology term is not currently available, but if circumstances were to change and it were to be offered, I would really appreciate having the opportunity to rotate through that term!</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>JHH Surgery Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>JHH Surgery - Neurosurgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>CMN Medicine - Cardiology (PGY1/2)</t>
         </is>
@@ -2648,25 +2928,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>JHH Medicine - Gastroenterology (PGY1/2)</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>JHH Medicine - Infectious Disease (PGY1/2)</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>JHH Surgery - Vascular (PGY1/2)</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>JHH General Surgery / Hepatopancreatobiliary and Upper GI Surgery (PGY1/2)</t>
         </is>
@@ -2690,25 +2975,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>It is a bit laborious having to manually order 59 options.</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>JHH Surgery - Neurosurgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>JHH General Surgery / Upper GI (PGY1/2)</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>JHH Medicine - Neurology (PGY1/2)</t>
         </is>
@@ -2732,25 +3022,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>JHH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>BDH Acute General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>JHH Surgery Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>MH Emergency (PGY1/2)</t>
         </is>
@@ -2774,25 +3069,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>JHH Surgery - Urology (PGY1/2)</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>JHH General Surgery / Colorectal (PGY1/2)</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>JHH Surgery Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>JHH General Surgery / Upper GI (PGY1/2)</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>JHH Medicine - Gastroenterology (PGY1/2)</t>
         </is>
@@ -2816,25 +3116,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>JHH Medicine - Respiratory (PGY1/2)</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>JHH Surgery Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>JHH Surgery - Vascular (PGY1/2)</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>JHH Medicine - Infectious Disease (PGY1/2)</t>
         </is>
@@ -2858,25 +3163,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>If a rural term is given, if at all possible could it be at the same time and location to James Gomersall if he gets a rural term too. Thank you for your consideration.</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>JHH Obstetrics &amp; Gynaecology (PGY1/2)</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>CMN Medicine - Medical Oncology (01) (PGY1/2)</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>JHH Medicine Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>CMN Medicine - Haematology (01) (PGY1/2)</t>
         </is>
@@ -2900,25 +3210,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>MH General Surgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>JHH Surgery - Ear, Nose and Throat (ENT) (PGY1/2)</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>MBH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>CMN Medicine - Gastroenterology with Drug &amp; Alcohol (PGY1/2)</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
@@ -2942,25 +3257,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>MH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>JHH Medicine - Neurology (PGY1/2)</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>HNE Mental Health Older People's Service - Mater Hospital (PGY1/2)</t>
         </is>
@@ -2984,25 +3304,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>JHH Medicine Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>CMN Medicine - Medical Oncology (01) (PGY1/2)</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>CMN Emergency (PGY1/2)</t>
         </is>
@@ -3026,25 +3351,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>BDH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>MH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>JHH General Surgery / Hepatopancreatobiliary and Upper GI Surgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>HNE Relief (PGY1/2)</t>
         </is>
@@ -3068,25 +3398,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>No options for Paeds terms?</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>JHH Surgery - Vascular (PGY1/2)</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>JHH Surgery - Cardiothoracic Surgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>JHH Medicine - Cardiology (PGY1/2)</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>JHH General Surgery / Trauma (PGY1/2)</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>HNE Relief (PGY1/2)</t>
         </is>
@@ -3110,25 +3445,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>It would be good to have a brief understanding/info of each team, and additionally would be helpful to have an idea of how terms might be allocated.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>CMN Surgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>BDH Sub-Acute General Medicine (Team 5) (PGY1/2)</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>BDH Acute General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>JHH Surgery Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>JHH Surgery - Orthopaedics (Team 6) (PGY1/2)</t>
         </is>
@@ -3152,25 +3492,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>If I am going to the Manning Base Hospital, can I please go there in my 3rd or 4th rotation</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
           <t>BDH Surgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>JHH Medicine - MACU (PGY1/2)</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>BDH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>MBH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>JHH Surgery - Vascular (PGY1/2)</t>
         </is>
@@ -3194,25 +3539,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
           <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>JHH Surgery - Urology (PGY1/2)</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>HNE Mental Health Lake Macquarie Ward - Mater hospital (PGY1/2)</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>TRRH Surgery - Orthopaedics 02 (PGY1/2)</t>
         </is>
@@ -3236,25 +3586,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>Extremely laborious, should have auto-arrange features for more rapid grouping</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>CMN Medicine - Haematology (01) (PGY1/2)</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>CMN Surgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>JHH Medicine Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>MH KK Rehabilitation (PGY 1/2)</t>
         </is>
@@ -3278,25 +3633,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t>CMN Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>BDH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>JHH Acute General Surgery Unit (PGY1/2)</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>BDH After Hours Internal Relief (PGY1/2)</t>
         </is>
@@ -3320,25 +3680,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>CMN Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>JHH Medicine - Rehabilitation (PGY1/2)</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>JHH Surgery - Urology (PGY1/2)</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>HNE Relief (PGY1/2)</t>
         </is>
@@ -3362,25 +3727,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>JHH Surgery Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>MH General Surgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>BDH Acute General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>HNE Mental Health &amp; Substance Use Service - Mater Hospital (PGY1/2)</t>
         </is>
@@ -3404,25 +3774,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>I have requested Term 3 leave due to a booked family trip overseas to spectate the Olympics in August. I would be extremely appreciative of this request being accommodated.</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>JHH Acute General Surgery Unit (PGY1/2)</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>JHH Obstetrics &amp; Gynaecology (PGY1/2)</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>CMN Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>MBH Emergency (PGY1/2)</t>
         </is>
@@ -3446,25 +3821,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>There might be too many options to do a ranking.</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
           <t>MH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>JHH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>BDH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>JHH Surgery - Vascular (PGY1/2)</t>
         </is>
@@ -3488,25 +3868,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>Was told to put any specific leave requests in this box. Being an international I am able to only visit my family once a year in Canada and the sole time they are all together is during the Christmas period of December/January. Understand that it is only a request but if there is any feasible way to schedule my leave/relief around or in term 5 that would be extremely appreciated. Thank you!</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>JHH Surgery - Urology (PGY1/2)</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>JHH Medicine Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>CMN Emergency (PGY1/2)</t>
         </is>
@@ -3530,25 +3915,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
           <t>CMN Medicine - Haematology (01) (PGY1/2)</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>JHH Surgery - Oral Maxillofacial (OMF) (PGY1/2)</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>CMN Surgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>MH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>CMN Relief (PGY1/2)</t>
         </is>
@@ -3572,25 +3962,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
           <t>JHH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>JHH Surgery - Urology (PGY1/2)</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>JHH Surgery - Neurosurgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>JHH Medicine - Gastroenterology (PGY1/2)</t>
         </is>
@@ -3614,25 +4009,36 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>Perhaps It would be easier to list term preferences_x000D_
+1- surgical_x000D_
+2- medical_x000D_
+3-relief_x000D_
+4- emergency_x000D_
+- this way- I don't know if my 4th preference will be for 1st term, overall or last._x000D_
+Thank you</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
           <t>JHH Medicine - Neurology (PGY1/2)</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>JHH Surgery Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>JHH Medicine - Gastroenterology (PGY1/2)</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>BDH Acute General Medicine &amp; Rehabilitation (PGY1/2)</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>MH General Surgery (PGY1/2)</t>
         </is>
@@ -3656,25 +4062,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>JHH General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>JHH Acute General Surgery Unit (PGY1/2)</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>MH Emergency (PGY1/2)</t>
         </is>
@@ -3698,25 +4109,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>HNE Relief (PGY1/2)</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>JHH General Surgery / Trauma (PGY1/2)</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>BDH Acute General Medicine &amp; Cardiology (PGY1/2)</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>JHH Medicine - Dermatology (PGY1/2)</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>MH  Medicine - Cardiology (PGY1/2)</t>
         </is>
@@ -3740,25 +4156,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t>My wife is currently pregnant, due in late January. Have discussed with Chelvi. Planning to take the first 3 weeks of term 1 as annual leave. I also have 2 other children and greatly prefer to be the Newcastle region for the whole of the year, if this can be accommodated.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
           <t>CMN General Medicine (PGY1/2)</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>CMN Surgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>JHH Acute General Surgery Unit (PGY1/2)</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>MH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>BDH Acute General Medicine (PGY1/2)</t>
         </is>
@@ -3782,25 +4203,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
           <t>HNE Mental Health Lake Macquarie Ward - Mater hospital (PGY1/2)</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>HNE Mental Health Newcastle Inpatient Unit - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>CMN Medicine - Haematology (01) (PGY1/2)</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>JHH Medicine Relief (PGY1/2)</t>
         </is>
@@ -3824,25 +4250,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
           <t>HNE Mental Health Newcastle Inpatient Unit - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>JHH Medicine - Respiratory (PGY1/2)</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>HNE Mental Health Older People's Service - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>CMN Surgery (PGY1/2)</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>MH General Medicine (PGY1/2)</t>
         </is>
@@ -3866,25 +4297,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>I think it would be useful if the terms were organised (e.g., by surgery, by med, by ED).</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t>MH  Medicine - Cardiology (PGY1/2)</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>BDH Acute General Medicine &amp; Rehabilitation (PGY1/2)</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>JHH Emergency (PGY1/2)</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>JHH Medicine - Respiratory (PGY1/2)</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>JHH Surgery - Neurosurgery (PGY1/2)</t>
         </is>
@@ -3908,25 +4344,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>Not Answered</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
           <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>HNE Mental Health Older People's Service - Mater Hospital (PGY1/2)</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>JHH Medicine - Cardiology (PGY1/2)</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>JHH Medicine - Nephrology &amp; Dialysis (PGY1/2)</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>CMN Emergency (PGY1/2)</t>
         </is>
@@ -3939,7 +4380,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4032,46 +4473,58 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Average Preference of Assigned Terms</t>
+          <t>Percentage of lines with full HETI compliance</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>19.81</t>
+          <t>65.48</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Average Max of Assigned Preferences</t>
+          <t>Average Preference of Assigned Terms</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>48.73</t>
+          <t>19.81</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Average Min of Assigned Preferences</t>
+          <t>Average Max of Assigned Preferences</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>48.73</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Average Min of Assigned Preferences</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Average SD of Assigned Preferences</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>21.08</t>
         </is>
